--- a/SGMC/data/output/cleaned_chatgpt_results_1.xlsx
+++ b/SGMC/data/output/cleaned_chatgpt_results_1.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>state_province</t>
+          <t>state_Provence</t>
         </is>
       </c>
     </row>
